--- a/cvm_instruct.xlsx
+++ b/cvm_instruct.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="146">
   <si>
     <t>CALCVM INSTRUCTION SET</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,6 +562,30 @@
   </si>
   <si>
     <t>run $data</t>
+  </si>
+  <si>
+    <t>popu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>popu $data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrease stack ptr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top--</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -964,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1288,91 +1312,94 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>43</v>
+      <c r="A20" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="D23">
         <v>7</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>46</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F23" t="s">
         <v>49</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="7" t="s">
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="B23">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="5" t="s">
-        <v>124</v>
       </c>
       <c r="B24">
         <v>5</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>125</v>
-      </c>
       <c r="F24" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1383,265 +1410,265 @@
         <v>5</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="F25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>72</v>
       </c>
       <c r="B26">
         <v>5</v>
       </c>
-      <c r="C26">
-        <v>0</v>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>124</v>
+      </c>
+      <c r="F26" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
         <v>7</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="8" t="s">
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="B34">
-        <v>6</v>
-      </c>
-      <c r="F34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
-        <v>90</v>
       </c>
       <c r="B35">
         <v>6</v>
       </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>94</v>
+      <c r="F35" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36">
         <v>6</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37">
         <v>6</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38">
         <v>6</v>
       </c>
       <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
         <v>3</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="4" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B39">
-        <v>7</v>
-      </c>
-      <c r="F39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>98</v>
       </c>
       <c r="B40">
         <v>7</v>
       </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>98</v>
-      </c>
       <c r="F40" t="s">
-        <v>103</v>
-      </c>
-      <c r="G40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B41">
         <v>7</v>
       </c>
       <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="G41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42">
+        <v>7</v>
+      </c>
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E42" t="s">
         <v>102</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G42" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B42">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="B43">
         <v>10</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1652,178 +1679,209 @@
         <v>10</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>107</v>
+      <c r="A45" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="B45">
         <v>10</v>
       </c>
-      <c r="C45">
-        <v>0</v>
+      <c r="D45">
+        <v>2</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>129</v>
+      </c>
+      <c r="F45" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B46">
         <v>10</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47">
         <v>10</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B48">
         <v>10</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B49">
         <v>10</v>
       </c>
       <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>111</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
         <v>4</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E50" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="6" t="s">
+    <row r="51" spans="1:6">
+      <c r="A51" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="B50">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>136</v>
       </c>
       <c r="B51">
         <v>11</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>139</v>
-      </c>
       <c r="F51" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B52">
         <v>11</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F52" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B53">
         <v>11</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F53" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F54" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55">
+        <v>12</v>
+      </c>
+      <c r="E55" t="s">
+        <v>123</v>
+      </c>
+      <c r="F55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>118</v>
       </c>
-      <c r="B55">
+      <c r="B57">
         <v>13</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E57" t="s">
         <v>119</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F57" t="s">
         <v>120</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>